--- a/Document/사다리 룰.xlsx
+++ b/Document/사다리 룰.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\대학\3학년 1학기\팀 프로젝트\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\대학\3학년 1학기\팀 프로젝트\기획서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>사다리 타기 룰 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 카메라 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 모두 60도씩 총 120도 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,15 +615,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="dk1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -873,15 +885,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="dk1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1143,15 +1155,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="dk1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1627,15 +1639,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="dk1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -2507,6 +2519,894 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>..</a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="14258925"/>
+          <a:ext cx="2809875" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2381249</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="직사각형 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657349" y="14325600"/>
+          <a:ext cx="1152525" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314449</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="직사각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743074" y="14516100"/>
+          <a:ext cx="1000126" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="그룹 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1352550" y="14325600"/>
+          <a:ext cx="1752600" cy="3105150"/>
+          <a:chOff x="1352550" y="14325600"/>
+          <a:chExt cx="1752600" cy="3009899"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="순서도: 병합 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1352550" y="14325600"/>
+            <a:ext cx="1752600" cy="2200275"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="직사각형 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2047875" y="16525874"/>
+            <a:ext cx="381000" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>카메라</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3371850</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="16316325"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="타원 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="16335375"/>
+          <a:ext cx="447675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>105890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2989735</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1477</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="구부러진 연결선 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="16698440"/>
+          <a:ext cx="989485" cy="314687"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>610715</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>124939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="구부러진 연결선 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="5"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1395789" y="16361040"/>
+          <a:ext cx="295637" cy="1008535"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2276476</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705101" y="16592550"/>
+          <a:ext cx="504824" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="직사각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362076" y="16592550"/>
+          <a:ext cx="504824" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962047</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3038527</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="순서도: 병합 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390672" y="14325602"/>
+          <a:ext cx="2076480" cy="2069926"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 5000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX2" fmla="*/ 7609 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 9119 h 9119"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 14239"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 14239 w 14239"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 11848 w 14239"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 14239"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 11848"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 9837 w 11848"/>
+            <a:gd name="connsiteY1" fmla="*/ 46 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 11848 w 11848"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 11848"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="11848" h="10000">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="9837" y="46"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="11848" y="10000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2676547</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="순서도: 병합 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1000125" y="14325602"/>
+          <a:ext cx="2105047" cy="2069926"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 5000 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX1" fmla="*/ 10000 w 10000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX2" fmla="*/ 7609 w 10000"/>
+            <a:gd name="connsiteY2" fmla="*/ 9119 h 9119"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 10000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 9119"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 14239"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 14239 w 14239"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 11848 w 14239"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 14239"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 11848"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 10000"/>
+            <a:gd name="connsiteX1" fmla="*/ 9837 w 11848"/>
+            <a:gd name="connsiteY1" fmla="*/ 46 h 10000"/>
+            <a:gd name="connsiteX2" fmla="*/ 11848 w 11848"/>
+            <a:gd name="connsiteY2" fmla="*/ 10000 h 10000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 11848"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 10000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="11848" h="10000">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="9837" y="46"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="11848" y="10000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2781,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2881,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C62"/>
+  <dimension ref="B2:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3130,6 +4030,77 @@
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
     </row>
+    <row r="65" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/사다리 룰.xlsx
+++ b/Document/사다리 룰.xlsx
@@ -3783,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/사다리 룰.xlsx
+++ b/Document/사다리 룰.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3783,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3928,12 +3928,8 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
